--- a/second/Work-Plan-Template/Work Plan Template _By Month.xlsx
+++ b/second/Work-Plan-Template/Work Plan Template _By Month.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540"/>
   </bookViews>
   <sheets>
     <sheet name="Work Plan" sheetId="2" r:id="rId1"/>
     <sheet name="Codes" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Work Plan'!$A$1:$U$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Work Plan'!$A$1:$U$29</definedName>
     <definedName name="Status">Codes!$A$2:$A$5</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>Status</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Dissertation write-up</t>
   </si>
   <si>
-    <t>Mungo Work Chapter</t>
-  </si>
-  <si>
     <t>StMungo Work Chapter</t>
   </si>
   <si>
@@ -173,6 +170,12 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Mungo Theoretical Work Chapter</t>
+  </si>
+  <si>
+    <t>Mungo Practical Work Chapter</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -601,8 +604,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -619,8 +650,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -686,6 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -701,15 +747,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="30">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -720,14 +767,68 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -1093,13 +1194,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1115,150 +1216,150 @@
   <sheetData>
     <row r="1" spans="1:33" s="21" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:33" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="42">
         <v>2017</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="43">
         <v>2018</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="44"/>
       <c r="V2" s="43">
         <v>2019</v>
       </c>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="44"/>
     </row>
     <row r="3" spans="1:33" s="29" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="E3" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="S3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC3" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="AE3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="AF3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="AG3" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB3" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF3" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG3" s="28" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -1325,11 +1426,11 @@
       <c r="T5" s="35"/>
       <c r="U5" s="35"/>
       <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
@@ -1388,8 +1489,8 @@
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="4"/>
@@ -1442,7 +1543,6 @@
       <c r="V8" s="7"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="5"/>
@@ -1464,9 +1564,9 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="46"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -1478,7 +1578,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="4"/>
+      <c r="V9" s="7"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
@@ -1503,11 +1603,11 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
@@ -1518,8 +1618,8 @@
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
@@ -1532,7 +1632,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>1</v>
@@ -1608,7 +1708,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>3</v>
@@ -1626,7 +1726,7 @@
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
       <c r="O13" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -1636,10 +1736,10 @@
       <c r="U13" s="35"/>
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
@@ -1649,7 +1749,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>1</v>
@@ -1688,7 +1788,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>1</v>
@@ -1712,7 +1812,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="4"/>
+      <c r="V15" s="46"/>
       <c r="W15" s="4"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
@@ -1764,7 +1864,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>3</v>
@@ -1788,7 +1888,7 @@
       <c r="S17" s="35"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
+      <c r="V17" s="46"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="10"/>
@@ -1803,7 +1903,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>3</v>
@@ -1842,7 +1942,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>1</v>
@@ -1865,8 +1965,8 @@
       <c r="R19" s="5"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="5"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="46"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -1881,7 +1981,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>1</v>
@@ -1893,7 +1993,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="J20" s="46"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -1907,8 +2007,8 @@
       <c r="U20" s="35"/>
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
@@ -1920,7 +2020,7 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>3</v>
@@ -1944,7 +2044,7 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="5"/>
-      <c r="V21" s="35"/>
+      <c r="V21" s="46"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
@@ -1996,7 +2096,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>1</v>
@@ -2008,7 +2108,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="46"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -2016,14 +2116,14 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
       <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
@@ -2035,7 +2135,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="32" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>1</v>
@@ -2047,7 +2147,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="46"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -2057,16 +2157,16 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="5"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
@@ -2074,7 +2174,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>1</v>
@@ -2086,7 +2186,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="4"/>
+      <c r="J25" s="46"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -2096,16 +2196,16 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
@@ -2113,7 +2213,7 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" s="32" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>1</v>
@@ -2125,7 +2225,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="46"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -2135,24 +2235,24 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="4"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
       <c r="AG26" s="5"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="32" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>1</v>
@@ -2164,7 +2264,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="4"/>
+      <c r="J27" s="46"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -2174,16 +2274,16 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
@@ -2191,7 +2291,7 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28" s="32" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>1</v>
@@ -2203,7 +2303,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="46"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -2213,20 +2313,59 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
+      <c r="T28" s="45"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="5"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A29" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2237,8 +2376,8 @@
     <mergeCell ref="V2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B7:B65518">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B7:B65519">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -2252,7 +2391,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{DD11BE9A-8C9B-4CD8-9251-26BC3915AAEF}">
+          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{DD11BE9A-8C9B-4CD8-9251-26BC3915AAEF}">
             <xm:f>Codes!$A$5</xm:f>
             <x14:dxf>
               <font>
@@ -2260,7 +2399,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{3B587420-7201-4BBF-96DB-C13804306AA6}">
+          <x14:cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal" id="{3B587420-7201-4BBF-96DB-C13804306AA6}">
             <xm:f>Codes!$A$4</xm:f>
             <x14:dxf>
               <font>
@@ -2268,7 +2407,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{19D9DBA1-FD45-49A5-BE24-08041168BDFA}">
+          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{19D9DBA1-FD45-49A5-BE24-08041168BDFA}">
             <xm:f>Codes!$A$3</xm:f>
             <x14:dxf>
               <font>
@@ -2276,7 +2415,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{03534D02-D82D-42C7-AD59-EEE7246AE260}">
+          <x14:cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal" id="{03534D02-D82D-42C7-AD59-EEE7246AE260}">
             <xm:f>Codes!$A$2</xm:f>
             <x14:dxf>
               <font>
@@ -2284,10 +2423,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B2 B4:B5 B29:B65518 B7:B21</xm:sqref>
+          <xm:sqref>B2 B4:B5 B30:B65519 B7:B21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{1CCD01BB-4371-436F-A07A-2AEA7868A1F3}">
+          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{1CCD01BB-4371-436F-A07A-2AEA7868A1F3}">
             <xm:f>Codes!$A$5</xm:f>
             <x14:dxf>
               <font>
@@ -2295,7 +2434,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{26956FB6-C288-483B-9494-4D25192CA150}">
+          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{26956FB6-C288-483B-9494-4D25192CA150}">
             <xm:f>Codes!$A$4</xm:f>
             <x14:dxf>
               <font>
@@ -2303,7 +2442,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{66C9964D-5A85-45E7-B23A-B45D166C79C0}">
+          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{66C9964D-5A85-45E7-B23A-B45D166C79C0}">
             <xm:f>Codes!$A$3</xm:f>
             <x14:dxf>
               <font>
@@ -2311,7 +2450,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{4E5B75D7-7371-4160-994E-8C16C47036FD}">
+          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{4E5B75D7-7371-4160-994E-8C16C47036FD}">
             <xm:f>Codes!$A$2</xm:f>
             <x14:dxf>
               <font>
@@ -2319,10 +2458,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B22:B28</xm:sqref>
+          <xm:sqref>B22:B23 B25:B29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{81EB8286-9A8B-D142-9616-5BCF42983073}">
+          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{81EB8286-9A8B-D142-9616-5BCF42983073}">
             <xm:f>Codes!$A$5</xm:f>
             <x14:dxf>
               <font>
@@ -2330,7 +2469,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{4FF6FBB2-0B7A-244F-A718-FB8CC09B0D77}">
+          <x14:cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal" id="{4FF6FBB2-0B7A-244F-A718-FB8CC09B0D77}">
             <xm:f>Codes!$A$4</xm:f>
             <x14:dxf>
               <font>
@@ -2338,7 +2477,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{A0541B8C-024E-3242-B197-16014022E217}">
+          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{A0541B8C-024E-3242-B197-16014022E217}">
             <xm:f>Codes!$A$3</xm:f>
             <x14:dxf>
               <font>
@@ -2346,7 +2485,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{63EED362-B3B1-3E4F-B798-DC8C50E6B145}">
+          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{63EED362-B3B1-3E4F-B798-DC8C50E6B145}">
             <xm:f>Codes!$A$2</xm:f>
             <x14:dxf>
               <font>
@@ -2355,6 +2494,41 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>B6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{F504C15E-4A1F-D94B-B11F-7E02E4951D6A}">
+            <xm:f>Codes!$A$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal" id="{51C38E30-72DE-C54E-ADB0-83169B9D2585}">
+            <xm:f>Codes!$A$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006600"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{FDBF4143-2D71-844B-A3AF-15E82696A0D6}">
+            <xm:f>Codes!$A$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9" tint="-0.24994659260841701"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{AAF21070-25DF-4B49-9A34-2D19D9827C96}">
+            <xm:f>Codes!$A$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0" tint="-0.499984740745262"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
